--- a/DataSourceAssignment.xlsx
+++ b/DataSourceAssignment.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\003BQB744\Desktop\Swetha\Learn\FSTester\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\003BQB744\Desktop\Swetha\Learn\FSTester\ReadyAPIAssignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB489F05-E11B-43D1-8061-CA24A6F22854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6849A09A-3A47-4061-8136-2E13F842777A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{7EA46FA1-CAEC-4022-AC09-77975C4E00AF}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>Username</t>
   </si>
@@ -58,9 +58,6 @@
     <t>userstatus</t>
   </si>
   <si>
-    <t>Ram</t>
-  </si>
-  <si>
     <t>L</t>
   </si>
   <si>
@@ -79,9 +76,6 @@
     <t>GetUserResponse</t>
   </si>
   <si>
-    <t>Sita</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
@@ -109,28 +103,25 @@
     <t>LogoutRcode</t>
   </si>
   <si>
-    <t>{"id":2039377080500586019,"username":"Ram","firstName":"Ram","lastName":"L","email":"test1@gmail.com","password":"password1","phone":"42234","userStatus":0}</t>
+    <t>Jack</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>Jill</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>{"id":41850623,"username":"Jack","firstName":"J","lastName":"L","email":"test1@gmail.com","password":"password1","phone":"42234","userStatus":0}</t>
   </si>
   <si>
     <t>200</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>{"id":2039377080500586053,"username":"Sita","firstName":"Sita","lastName":"M","email":"tesrt@sf.com","password":"passwrd23","phone":"5435435","userStatus":0}</t>
-  </si>
-  <si>
-    <t>{"id":2039377080500586021,"username":"Ram","firstName":"Ram","lastName":"L","email":"test1@gmail.com","password":"password1","phone":"42234","userStatus":0}</t>
-  </si>
-  <si>
-    <t>{"id":2039377080500586076,"username":"Sita","firstName":"Sita","lastName":"M","email":"tesrt@sf.com","password":"passwrd23","phone":"5435435","userStatus":0}</t>
-  </si>
-  <si>
-    <t>{"id":2039377080500586028,"username":"Ram","firstName":"Ram","lastName":"L","email":"test1@gmail.com","password":"password1","phone":"42234","userStatus":0}</t>
-  </si>
-  <si>
-    <t>{"id":2039377080500586085,"username":"Sita","firstName":"Sita","lastName":"M","email":"tesrt@sf.com","password":"passwrd23","phone":"5435435","userStatus":0}</t>
+    <t>{"id":41850623,"username":"Jill","firstName":"K","lastName":"M","email":"tesrt@sf.com","password":"passwrd23","phone":"5435435","userStatus":0}</t>
   </si>
 </sst>
 </file>
@@ -500,7 +491,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -534,24 +525,24 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
       </c>
       <c r="F2">
         <v>42234</v>
@@ -560,24 +551,24 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>15</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
       </c>
       <c r="F3">
         <v>5435435</v>
@@ -586,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -602,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4CE2D86-2987-4DCE-944C-81148B648458}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -615,62 +606,62 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>21</v>
-      </c>
-      <c r="E1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
